--- a/output/StructureDefinition-IDCoreCondition.xlsx
+++ b/output/StructureDefinition-IDCoreCondition.xlsx
@@ -9,6 +9,9 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$40</definedName>
+  </definedNames>
 </workbook>
 </file>
 
@@ -54,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T12:08:26+07:00</t>
+    <t>2024-05-22T17:23:47+07:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -512,7 +515,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>https://fhir.kemkes.go.id/r4/ValueSet/ConditionClinicalStatusVS</t>
+    <t>http://terminology.hl7.org/ValueSet/condition-clinical</t>
   </si>
   <si>
     <t>con-3
@@ -548,7 +551,7 @@
 The data type is CodeableConcept because verificationStatus has some clinical judgment involved, such that there might need to be more specificity than the required FHIR value set allows. For example, a SNOMED coding might allow for additional specificity.</t>
   </si>
   <si>
-    <t>http://dto.kemkes.go.id//VS/Condition.verificationStatus</t>
+    <t>http://terminology.hl7.org/ValueSet/condition-ver-status</t>
   </si>
   <si>
     <t>con-3
@@ -580,7 +583,7 @@
     <t>The categorization is often highly contextual and may appear poorly differentiated or not very useful in other contexts.</t>
   </si>
   <si>
-    <t>http://dto.kemkes.go.id//VS/Condition.category</t>
+    <t>http://terminology.hl7.org/ValueSet/condition-category</t>
   </si>
   <si>
     <t>&lt; 404684003 |Clinical finding|</t>
@@ -607,7 +610,7 @@
     <t>Coding of the severity with a terminology is preferred, where possible.</t>
   </si>
   <si>
-    <t>http://dto.kemkes.go.id//VS/Condition.severity</t>
+    <t>http://hl7.org/fhir/ValueSet/condition-severity</t>
   </si>
   <si>
     <t>&lt; 272141005 |Severities|</t>
@@ -641,7 +644,7 @@
     <t>0..1 to account for primarily narrative only resources.</t>
   </si>
   <si>
-    <t>https://fhir.kemkes.go.id/r4/ValueSet/ConditionCodeVS</t>
+    <t>http://hl7.org/fhir/CodeSystem/condition-code</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -683,7 +686,7 @@
     <t>Only used if not implicit in code found in Condition.code. If the use case requires attributes from the BodySite resource (e.g. to identify and track separately) then use the standard extension [bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).  May be a summary code, or a reference to a very precise definition of the location, or both.</t>
   </si>
   <si>
-    <t>http://dto.kemkes.go.id//VS/Condition.bodySite</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site</t>
   </si>
   <si>
     <t>&lt; 442083009  |Anatomical or acquired body structure|</t>
@@ -730,7 +733,7 @@
     <t>Condition.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://fhir.kemkes.go.id/r4/StructureDefinition/IDCoreEncounter)
+    <t xml:space="preserve">Reference(Encounter)
 </t>
   </si>
   <si>
@@ -957,7 +960,7 @@
     <t>A simple summary of the stage such as "Stage 3". The determination of the stage is disease-specific.</t>
   </si>
   <si>
-    <t>http://dto.kemkes.go.id//VS/Condition.stage.summary</t>
+    <t>http://hl7.org/fhir/ValueSet/condition-stage</t>
   </si>
   <si>
     <t xml:space="preserve">con-1
@@ -992,7 +995,7 @@
     <t>The kind of staging, such as pathological or clinical staging.</t>
   </si>
   <si>
-    <t>http://dto.kemkes.go.id//VS/Condition.stage.type</t>
+    <t>http://hl7.org/fhir/ValueSet/condition-stage-type</t>
   </si>
   <si>
     <t>./inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code="stage type"]</t>
@@ -1035,7 +1038,7 @@
     <t>A manifestation or symptom that led to the recording of this condition.</t>
   </si>
   <si>
-    <t>http://dto.kemkes.go.id//VS/Condition.evidence.code</t>
+    <t>http://hl7.org/fhir/ValueSet/manifestation-or-symptom</t>
   </si>
   <si>
     <t xml:space="preserve">con-2
@@ -1212,6 +1215,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1397,7 +1415,7 @@
     <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="70.796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="58.98828125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1412,7 +1430,7 @@
     <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="58.5859375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="52.50390625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.8203125" customWidth="true" bestFit="true"/>
@@ -1558,7 +1576,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>27</v>
       </c>
@@ -1676,7 +1694,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>87</v>
       </c>
@@ -1796,7 +1814,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>95</v>
       </c>
@@ -1914,7 +1932,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>101</v>
       </c>
@@ -2034,7 +2052,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>107</v>
       </c>
@@ -2154,7 +2172,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>116</v>
       </c>
@@ -2274,7 +2292,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
         <v>124</v>
       </c>
@@ -2394,7 +2412,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
         <v>132</v>
       </c>
@@ -2514,7 +2532,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
         <v>140</v>
       </c>
@@ -2636,7 +2654,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>145</v>
       </c>
@@ -2758,7 +2776,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
         <v>154</v>
       </c>
@@ -2876,7 +2894,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
         <v>167</v>
       </c>
@@ -2994,7 +3012,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
         <v>177</v>
       </c>
@@ -3112,7 +3130,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
         <v>186</v>
       </c>
@@ -3230,7 +3248,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
         <v>196</v>
       </c>
@@ -3348,7 +3366,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
         <v>208</v>
       </c>
@@ -3466,7 +3484,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
         <v>216</v>
       </c>
@@ -3586,7 +3604,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
         <v>226</v>
       </c>
@@ -3605,7 +3623,7 @@
         <v>88</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>76</v>
@@ -3706,7 +3724,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
         <v>235</v>
       </c>
@@ -3824,7 +3842,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
         <v>246</v>
       </c>
@@ -3946,7 +3964,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
         <v>249</v>
       </c>
@@ -4064,7 +4082,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
         <v>256</v>
       </c>
@@ -4186,7 +4204,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
         <v>258</v>
       </c>
@@ -4304,7 +4322,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
         <v>264</v>
       </c>
@@ -4422,7 +4440,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
         <v>270</v>
       </c>
@@ -4540,7 +4558,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
         <v>276</v>
       </c>
@@ -4658,7 +4676,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
         <v>282</v>
       </c>
@@ -4776,7 +4794,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
         <v>288</v>
       </c>
@@ -4896,7 +4914,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
         <v>291</v>
       </c>
@@ -5018,7 +5036,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
         <v>296</v>
       </c>
@@ -5134,7 +5152,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
         <v>302</v>
       </c>
@@ -5252,7 +5270,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
         <v>307</v>
       </c>
@@ -5368,7 +5386,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
         <v>312</v>
       </c>
@@ -5488,7 +5506,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
         <v>318</v>
       </c>
@@ -5606,7 +5624,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
         <v>319</v>
       </c>
@@ -5726,7 +5744,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
         <v>320</v>
       </c>
@@ -5848,7 +5866,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
         <v>321</v>
       </c>
@@ -5964,7 +5982,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
         <v>329</v>
       </c>
@@ -6082,7 +6100,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
         <v>333</v>
       </c>
@@ -6201,6 +6219,24 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AP40">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI39">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/output/StructureDefinition-IDCoreCondition.xlsx
+++ b/output/StructureDefinition-IDCoreCondition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-22T17:23:47+07:00</t>
+    <t>2024-05-23T10:54:59+07:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -644,7 +644,7 @@
     <t>0..1 to account for primarily narrative only resources.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/CodeSystem/condition-code</t>
+    <t>http://hl7.org/fhir/ValueSet/condition-code</t>
   </si>
   <si>
     <t>Event.code</t>

--- a/output/StructureDefinition-IDCoreCondition.xlsx
+++ b/output/StructureDefinition-IDCoreCondition.xlsx
@@ -57,19 +57,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T10:54:59+07:00</t>
+    <t>2024-05-29T21:39:03+07:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Thomas Chaidir</t>
+    <t>SatuSehat</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>SatuSehat (https://satusehat.kemkes.go.id/, fhir@dto.kemkes.go.id)</t>
   </si>
   <si>
     <t>Description</t>

--- a/output/StructureDefinition-IDCoreCondition.xlsx
+++ b/output/StructureDefinition-IDCoreCondition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-29T21:39:03+07:00</t>
+    <t>2024-05-30T10:41:30+07:00</t>
   </si>
   <si>
     <t>Publisher</t>
